--- a/Semana 2/Jueves/DatosEjercicioEmpleado.xlsx
+++ b/Semana 2/Jueves/DatosEjercicioEmpleado.xlsx
@@ -2,23 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\UTN\programacion2-20251c-n\Semana 2\Jueves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6343C451-E18A-4123-8674-997498890494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7B7637-011B-469C-990F-9CED0B4ECA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{55F78729-7813-49CE-BE62-2ECCD84BD287}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="11520" windowHeight="12504" activeTab="1" xr2:uid="{55F78729-7813-49CE-BE62-2ECCD84BD287}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="A" sheetId="2" r:id="rId2"/>
     <sheet name="B" sheetId="3" r:id="rId3"/>
     <sheet name="C" sheetId="4" r:id="rId4"/>
+    <sheet name="Resultados A" sheetId="7" r:id="rId5"/>
+    <sheet name="Resultados C " sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Nemp</t>
   </si>
@@ -100,6 +109,24 @@
   <si>
     <t>IDEmpleado</t>
   </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Horas</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Cuenta de Nemp</t>
+  </si>
 </sst>
 </file>
 
@@ -155,12 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +205,528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="UTN" refreshedDate="45743.780939351855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{8BF552FE-110D-428D-B7FE-777AAF594316}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D19" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Nemp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="125" count="11">
+        <n v="100"/>
+        <n v="101"/>
+        <n v="110"/>
+        <n v="120"/>
+        <n v="125"/>
+        <n v="102"/>
+        <n v="103"/>
+        <n v="105"/>
+        <n v="106"/>
+        <n v="107"/>
+        <n v="108"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="9"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="UTN" refreshedDate="45743.781702199078" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{787D4808-E805-4F58-A37B-C39AB45D7F20}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D20" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Nemp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="125"/>
+    </cacheField>
+    <cacheField name="Mes" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dia" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="15" count="11">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="8"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="15"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="9"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <n v="100"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="5"/>
+    <x v="10"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB2702A9-CD7B-4ED9-BCF2-C9796BBFE8DC}" name="TablaDinámica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Nemp" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B0900DF-48CC-4182-AECD-438BD412FEEC}" name="TablaDinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Horas" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88D8079-3114-4C87-856D-24B80B78D1C5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,6 +1329,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D20" xr:uid="{E88D8079-3114-4C87-856D-24B80B78D1C5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -786,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B296F8-ADD6-4C06-A283-551674BBE292}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2192,4 +2744,406 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA06E0B5-D10E-4C83-AD60-331F66FFBB4A}">
+  <dimension ref="A3:N11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" hidden="1" customWidth="1"/>
+    <col min="3" max="9" width="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f>COUNTIF(B5:K5,"&gt;0")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N9" si="0">COUNTIF(B6:K6,"&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE98158F-9221-4DC3-9F77-632D6795EF2F}">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>